--- a/WorkBot/main/backend/orders/Completed Orders/Eurocafe Imports/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/Completed Orders/Eurocafe Imports/combined_order.xlsx
@@ -424,11 +424,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hazelnut Coffee (Grounded, Bulk)</t>
+          <t>Fulkerson - Niagara Grape</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -438,17 +438,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fulkerson - Niagara Grape</t>
+          <t>Hazelnut Coffee (Grounded, Bulk)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
